--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/CAN_TIMES_v2 - Copy - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_11E339F46A19EC701F17FE38BDCF904FC13006B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35B761CB-EEFB-4BCF-90E2-FD655447AF7C}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_11E339F46A19EC701F17FE38BDCF904FC13006B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F0E3C44-9A57-4980-933D-A342D5A37149}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSlices" sheetId="21" r:id="rId1"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -254,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="313">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -1822,7 +1820,7 @@
       <xdr:col>37</xdr:col>
       <xdr:colOff>553860</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>96303</xdr:rowOff>
+      <xdr:rowOff>120726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2276,7 +2274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:U16"/>
     </sheetView>
   </sheetViews>
@@ -3166,7 +3164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:S192"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="L81" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -7969,8 +7967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -9821,32 +9819,35 @@
         <v>110</v>
       </c>
       <c r="D66" s="19">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
-      </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="43">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H66" s="43">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="I66" s="43">
-        <v>3.21</v>
-      </c>
-      <c r="J66" s="43">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="K66" s="43">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L66" s="43">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M66" s="43">
-        <v>3.6179999999999997E-2</v>
+        <v>98</v>
+      </c>
+      <c r="G66" s="44">
+        <f t="shared" ref="G66" si="0">(317+616+204+55)/1000</f>
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="H66" s="44">
+        <f t="shared" ref="H66" si="1">3.9</f>
+        <v>3.9</v>
+      </c>
+      <c r="I66" s="44">
+        <v>5.17</v>
+      </c>
+      <c r="J66" s="44">
+        <v>0.26</v>
+      </c>
+      <c r="K66" s="44">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="L66" s="44">
+        <f t="shared" ref="L66" si="2">2.27</f>
+        <v>2.27</v>
+      </c>
+      <c r="M66" s="44">
+        <f t="shared" ref="M66" si="3">0.743</f>
+        <v>0.74299999999999999</v>
       </c>
       <c r="AS66" t="s">
         <v>110</v>
@@ -9886,32 +9887,32 @@
         <v>110</v>
       </c>
       <c r="D67" s="19">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F67" s="19"/>
-      <c r="G67" s="43">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H67" s="43">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="I67" s="43">
-        <v>3.21</v>
-      </c>
-      <c r="J67" s="43">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="K67" s="43">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L67" s="43">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M67" s="43">
-        <v>3.6179999999999997E-2</v>
+      <c r="G67" s="22">
+        <v>0</v>
+      </c>
+      <c r="H67" s="22">
+        <v>0</v>
+      </c>
+      <c r="I67" s="22">
+        <v>0</v>
+      </c>
+      <c r="J67" s="22">
+        <v>0</v>
+      </c>
+      <c r="K67" s="22">
+        <v>0</v>
+      </c>
+      <c r="L67" s="22">
+        <v>0</v>
+      </c>
+      <c r="M67" s="22">
+        <v>0</v>
       </c>
       <c r="AS67" t="s">
         <v>110</v>
@@ -9947,849 +9948,294 @@
     <row r="68" spans="1:55" ht="13">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
-      <c r="C68" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="19">
-        <v>2035</v>
-      </c>
-      <c r="E68" t="s">
-        <v>101</v>
-      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="19"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="43">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H68" s="43">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="I68" s="43">
-        <v>3.21</v>
-      </c>
-      <c r="J68" s="43">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="K68" s="43">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L68" s="43">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M68" s="43">
-        <v>3.6179999999999997E-2</v>
-      </c>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
     </row>
     <row r="69" spans="1:55" ht="13">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
-      <c r="C69" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D69" s="19">
-        <v>2040</v>
-      </c>
-      <c r="E69" t="s">
-        <v>101</v>
-      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="19"/>
       <c r="F69" s="19"/>
-      <c r="G69" s="43">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H69" s="43">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="I69" s="43">
-        <v>3.21</v>
-      </c>
-      <c r="J69" s="43">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="K69" s="43">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L69" s="43">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M69" s="43">
-        <v>3.6179999999999997E-2</v>
-      </c>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
     </row>
     <row r="70" spans="1:55" ht="13">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
-      <c r="C70" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D70" s="19">
-        <v>2045</v>
-      </c>
-      <c r="E70" t="s">
-        <v>101</v>
-      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="19"/>
       <c r="F70" s="19"/>
-      <c r="G70" s="43">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H70" s="43">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="I70" s="43">
-        <v>3.21</v>
-      </c>
-      <c r="J70" s="43">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="K70" s="43">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L70" s="43">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M70" s="43">
-        <v>3.6179999999999997E-2</v>
-      </c>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
     </row>
     <row r="71" spans="1:55" ht="13">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
-      <c r="C71" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D71" s="19">
-        <v>2050</v>
-      </c>
-      <c r="E71" t="s">
-        <v>101</v>
-      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="19"/>
       <c r="F71" s="19"/>
-      <c r="G71" s="43">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H71" s="43">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="I71" s="43">
-        <v>3.21</v>
-      </c>
-      <c r="J71" s="43">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="K71" s="43">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L71" s="43">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M71" s="43">
-        <v>3.6179999999999997E-2</v>
-      </c>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
     </row>
     <row r="72" spans="1:55" ht="13">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
-      <c r="C72" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="19">
-        <v>2100</v>
-      </c>
-      <c r="E72" t="s">
-        <v>101</v>
-      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="19"/>
       <c r="F72" s="19"/>
-      <c r="G72" s="43">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H72" s="43">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="I72" s="43">
-        <v>3.21</v>
-      </c>
-      <c r="J72" s="43">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="K72" s="43">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L72" s="43">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M72" s="43">
-        <v>3.6179999999999997E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:55" ht="13">
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+    </row>
+    <row r="73" spans="1:55">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
-      <c r="C73" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D73" s="19">
-        <v>2020</v>
-      </c>
-      <c r="E73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" s="19"/>
-      <c r="G73" s="22">
-        <v>0</v>
-      </c>
-      <c r="H73" s="22">
-        <v>0</v>
-      </c>
-      <c r="I73" s="22">
-        <v>0</v>
-      </c>
-      <c r="J73" s="22">
-        <v>0</v>
-      </c>
-      <c r="K73" s="22">
-        <v>0</v>
-      </c>
-      <c r="L73" s="22">
-        <v>0</v>
-      </c>
-      <c r="M73" s="22">
-        <v>0</v>
-      </c>
     </row>
     <row r="74" spans="1:55" ht="13">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
-      <c r="C74" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="19">
-        <v>2025</v>
-      </c>
-      <c r="E74" t="s">
-        <v>100</v>
-      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="19"/>
       <c r="F74" s="19"/>
-      <c r="G74" s="22">
-        <v>0</v>
-      </c>
-      <c r="H74" s="22">
-        <v>0</v>
-      </c>
-      <c r="I74" s="22">
-        <v>0</v>
-      </c>
-      <c r="J74" s="22">
-        <v>0</v>
-      </c>
-      <c r="K74" s="22">
-        <v>0</v>
-      </c>
-      <c r="L74" s="22">
-        <v>0</v>
-      </c>
-      <c r="M74" s="22">
-        <v>0</v>
-      </c>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
     </row>
     <row r="75" spans="1:55" ht="13">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
-      <c r="C75" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" s="19">
-        <v>2030</v>
-      </c>
-      <c r="E75" t="s">
-        <v>100</v>
-      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="19"/>
       <c r="F75" s="19"/>
-      <c r="G75" s="22">
-        <v>0</v>
-      </c>
-      <c r="H75" s="22">
-        <v>0</v>
-      </c>
-      <c r="I75" s="22">
-        <v>0</v>
-      </c>
-      <c r="J75" s="22">
-        <v>0</v>
-      </c>
-      <c r="K75" s="22">
-        <v>0</v>
-      </c>
-      <c r="L75" s="22">
-        <v>0</v>
-      </c>
-      <c r="M75" s="22">
-        <v>0</v>
-      </c>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
     </row>
     <row r="76" spans="1:55" ht="13">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
-      <c r="C76" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D76" s="19">
-        <v>2035</v>
-      </c>
-      <c r="E76" t="s">
-        <v>100</v>
-      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="19"/>
       <c r="F76" s="19"/>
-      <c r="G76" s="22">
-        <v>0</v>
-      </c>
-      <c r="H76" s="22">
-        <v>0</v>
-      </c>
-      <c r="I76" s="22">
-        <v>0</v>
-      </c>
-      <c r="J76" s="22">
-        <v>0</v>
-      </c>
-      <c r="K76" s="22">
-        <v>0</v>
-      </c>
-      <c r="L76" s="22">
-        <v>0</v>
-      </c>
-      <c r="M76" s="22">
-        <v>0</v>
-      </c>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
     </row>
     <row r="77" spans="1:55" ht="13">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
-      <c r="C77" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D77" s="19">
-        <v>2040</v>
-      </c>
-      <c r="E77" t="s">
-        <v>100</v>
-      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="19"/>
       <c r="F77" s="19"/>
-      <c r="G77" s="22">
-        <v>0</v>
-      </c>
-      <c r="H77" s="22">
-        <v>0</v>
-      </c>
-      <c r="I77" s="22">
-        <v>0</v>
-      </c>
-      <c r="J77" s="22">
-        <v>0</v>
-      </c>
-      <c r="K77" s="22">
-        <v>0</v>
-      </c>
-      <c r="L77" s="22">
-        <v>0</v>
-      </c>
-      <c r="M77" s="22">
-        <v>0</v>
-      </c>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
     </row>
     <row r="78" spans="1:55" ht="13">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
-      <c r="C78" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" s="19">
-        <v>2045</v>
-      </c>
-      <c r="E78" t="s">
-        <v>100</v>
-      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="19"/>
       <c r="F78" s="19"/>
-      <c r="G78" s="22">
-        <v>0</v>
-      </c>
-      <c r="H78" s="22">
-        <v>0</v>
-      </c>
-      <c r="I78" s="22">
-        <v>0</v>
-      </c>
-      <c r="J78" s="22">
-        <v>0</v>
-      </c>
-      <c r="K78" s="22">
-        <v>0</v>
-      </c>
-      <c r="L78" s="22">
-        <v>0</v>
-      </c>
-      <c r="M78" s="22">
-        <v>0</v>
-      </c>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
     </row>
     <row r="79" spans="1:55" ht="13">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
-      <c r="C79" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" s="19">
-        <v>2050</v>
-      </c>
-      <c r="E79" t="s">
-        <v>100</v>
-      </c>
+      <c r="C79" s="21"/>
+      <c r="D79" s="19"/>
       <c r="F79" s="19"/>
-      <c r="G79" s="22">
-        <v>0</v>
-      </c>
-      <c r="H79" s="22">
-        <v>0</v>
-      </c>
-      <c r="I79" s="22">
-        <v>0</v>
-      </c>
-      <c r="J79" s="22">
-        <v>0</v>
-      </c>
-      <c r="K79" s="22">
-        <v>0</v>
-      </c>
-      <c r="L79" s="22">
-        <v>0</v>
-      </c>
-      <c r="M79" s="22">
-        <v>0</v>
-      </c>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
     </row>
     <row r="80" spans="1:55" ht="13">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
-      <c r="C80" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D80" s="19">
-        <v>2100</v>
-      </c>
-      <c r="E80" t="s">
-        <v>100</v>
-      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="19"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="22">
-        <v>0</v>
-      </c>
-      <c r="H80" s="22">
-        <v>0</v>
-      </c>
-      <c r="I80" s="22">
-        <v>0</v>
-      </c>
-      <c r="J80" s="22">
-        <v>0</v>
-      </c>
-      <c r="K80" s="22">
-        <v>0</v>
-      </c>
-      <c r="L80" s="22">
-        <v>0</v>
-      </c>
-      <c r="M80" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="13">
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
-      <c r="C81" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D81" s="19">
-        <v>2020</v>
-      </c>
-      <c r="E81" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" s="44">
-        <f t="shared" ref="G81:G88" si="0">(317+616+204+55)/1000</f>
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="H81" s="44">
-        <f t="shared" ref="H81:H88" si="1">3.9</f>
-        <v>3.9</v>
-      </c>
-      <c r="I81" s="44">
-        <v>5.17</v>
-      </c>
-      <c r="J81" s="44">
-        <v>0.26</v>
-      </c>
-      <c r="K81" s="44">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="L81" s="44">
-        <f t="shared" ref="L81:L88" si="2">2.27</f>
-        <v>2.27</v>
-      </c>
-      <c r="M81" s="44">
-        <f t="shared" ref="M81:M88" si="3">0.743</f>
-        <v>0.74299999999999999</v>
-      </c>
     </row>
     <row r="82" spans="1:13" ht="13">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
-      <c r="C82" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" s="19">
-        <v>2025</v>
-      </c>
-      <c r="E82" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" s="44">
-        <f t="shared" si="0"/>
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="H82" s="44">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="I82" s="44">
-        <v>5.17</v>
-      </c>
-      <c r="J82" s="44">
-        <v>0.26</v>
-      </c>
-      <c r="K82" s="44">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="L82" s="44">
-        <f t="shared" si="2"/>
-        <v>2.27</v>
-      </c>
-      <c r="M82" s="44">
-        <f t="shared" si="3"/>
-        <v>0.74299999999999999</v>
-      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="19"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
     </row>
     <row r="83" spans="1:13" ht="13">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
-      <c r="C83" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" s="19">
-        <v>2030</v>
-      </c>
-      <c r="E83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" s="44">
-        <f t="shared" si="0"/>
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="H83" s="44">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="I83" s="44">
-        <v>5.17</v>
-      </c>
-      <c r="J83" s="44">
-        <v>0.26</v>
-      </c>
-      <c r="K83" s="44">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="L83" s="44">
-        <f t="shared" si="2"/>
-        <v>2.27</v>
-      </c>
-      <c r="M83" s="44">
-        <f t="shared" si="3"/>
-        <v>0.74299999999999999</v>
-      </c>
+      <c r="C83" s="21"/>
+      <c r="D83" s="19"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
     </row>
     <row r="84" spans="1:13" ht="13">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
-      <c r="C84" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="19">
-        <v>2035</v>
-      </c>
-      <c r="E84" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" s="44">
-        <f t="shared" si="0"/>
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="H84" s="44">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="I84" s="44">
-        <v>5.17</v>
-      </c>
-      <c r="J84" s="44">
-        <v>0.26</v>
-      </c>
-      <c r="K84" s="44">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="L84" s="44">
-        <f t="shared" si="2"/>
-        <v>2.27</v>
-      </c>
-      <c r="M84" s="44">
-        <f t="shared" si="3"/>
-        <v>0.74299999999999999</v>
-      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="19"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
     </row>
     <row r="85" spans="1:13" ht="13">
-      <c r="C85" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" s="19">
-        <v>2040</v>
-      </c>
-      <c r="E85" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" s="44">
-        <f t="shared" si="0"/>
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="H85" s="44">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="I85" s="44">
-        <v>5.17</v>
-      </c>
-      <c r="J85" s="44">
-        <v>0.26</v>
-      </c>
-      <c r="K85" s="44">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="L85" s="44">
-        <f t="shared" si="2"/>
-        <v>2.27</v>
-      </c>
-      <c r="M85" s="44">
-        <f t="shared" si="3"/>
-        <v>0.74299999999999999</v>
-      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="19"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
     </row>
     <row r="86" spans="1:13" ht="13">
-      <c r="C86" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D86" s="19">
-        <v>2045</v>
-      </c>
-      <c r="E86" t="s">
-        <v>98</v>
-      </c>
-      <c r="G86" s="44">
-        <f t="shared" si="0"/>
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="H86" s="44">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="I86" s="44">
-        <v>5.17</v>
-      </c>
-      <c r="J86" s="44">
-        <v>0.26</v>
-      </c>
-      <c r="K86" s="44">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="L86" s="44">
-        <f t="shared" si="2"/>
-        <v>2.27</v>
-      </c>
-      <c r="M86" s="44">
-        <f t="shared" si="3"/>
-        <v>0.74299999999999999</v>
-      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="19"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
     </row>
     <row r="87" spans="1:13" ht="13">
-      <c r="C87" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D87" s="19">
-        <v>2050</v>
-      </c>
-      <c r="E87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" s="44">
-        <f t="shared" si="0"/>
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="H87" s="44">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="I87" s="44">
-        <v>5.17</v>
-      </c>
-      <c r="J87" s="44">
-        <v>0.26</v>
-      </c>
-      <c r="K87" s="44">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="L87" s="44">
-        <f t="shared" si="2"/>
-        <v>2.27</v>
-      </c>
-      <c r="M87" s="44">
-        <f t="shared" si="3"/>
-        <v>0.74299999999999999</v>
-      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="19"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
     </row>
     <row r="88" spans="1:13" ht="13">
-      <c r="C88" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" s="19">
-        <v>2100</v>
-      </c>
-      <c r="E88" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" s="44">
-        <f t="shared" si="0"/>
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="H88" s="44">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="I88" s="44">
-        <v>5.17</v>
-      </c>
-      <c r="J88" s="44">
-        <v>0.26</v>
-      </c>
-      <c r="K88" s="44">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="L88" s="44">
-        <f t="shared" si="2"/>
-        <v>2.27</v>
-      </c>
-      <c r="M88" s="44">
-        <f t="shared" si="3"/>
-        <v>0.74299999999999999</v>
-      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="19"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
     </row>
     <row r="89" spans="1:13" ht="13">
-      <c r="C89" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D89" s="19">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" s="44">
-        <v>5</v>
-      </c>
-      <c r="H89" s="44">
-        <v>5</v>
-      </c>
-      <c r="I89" s="44">
-        <v>5</v>
-      </c>
-      <c r="J89" s="44">
-        <v>5</v>
-      </c>
-      <c r="K89" s="44">
-        <v>5</v>
-      </c>
-      <c r="L89" s="44">
-        <v>5</v>
-      </c>
-      <c r="M89" s="44">
-        <v>5</v>
-      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="19"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
     </row>
     <row r="90" spans="1:13" ht="13">
-      <c r="C90" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D90" s="19">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" s="44">
-        <v>5</v>
-      </c>
-      <c r="H90" s="44">
-        <v>5</v>
-      </c>
-      <c r="I90" s="44">
-        <v>5</v>
-      </c>
-      <c r="J90" s="44">
-        <v>5</v>
-      </c>
-      <c r="K90" s="44">
-        <v>5</v>
-      </c>
-      <c r="L90" s="44">
-        <v>5</v>
-      </c>
-      <c r="M90" s="44">
-        <v>5</v>
-      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="19"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="44"/>
     </row>
     <row r="91" spans="1:13" ht="13">
-      <c r="C91" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D91" s="19">
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
-        <v>101</v>
-      </c>
-      <c r="G91" s="44">
-        <v>5</v>
-      </c>
-      <c r="H91" s="44">
-        <v>5</v>
-      </c>
-      <c r="I91" s="44">
-        <v>5</v>
-      </c>
-      <c r="J91" s="44">
-        <v>5</v>
-      </c>
-      <c r="K91" s="44">
-        <v>5</v>
-      </c>
-      <c r="L91" s="44">
-        <v>5</v>
-      </c>
-      <c r="M91" s="44">
-        <v>5</v>
-      </c>
+      <c r="C91" s="21"/>
+      <c r="D91" s="19"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10803,8 +10249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP117"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -11458,31 +10904,33 @@
         <v>115</v>
       </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="22">
-        <f>SUM(Q12:Q15)</f>
-        <v>5.6603398535791802</v>
-      </c>
-      <c r="I4" s="19">
+      <c r="H4">
+        <f>T12</f>
+        <v>5.6603398535791767</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:N4" si="0">U12</f>
         <v>23.216999999999999</v>
       </c>
-      <c r="J4" s="22">
-        <f>9.2*I4/(I4+I11)</f>
-        <v>5.7916594360086799</v>
-      </c>
-      <c r="K4" s="22">
-        <f>6.1*I4/(I4+I11)</f>
-        <v>3.8401220173535799</v>
-      </c>
-      <c r="L4" s="22">
-        <f>0.89*I4/(I4+I11)</f>
-        <v>0.56028009761388298</v>
-      </c>
-      <c r="M4" s="19">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>5.7916594360086764</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>3.8401220173535791</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.56028009761388287</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
         <v>0.35399999999999998</v>
       </c>
-      <c r="N4" s="22">
-        <f t="shared" ref="N4:N10" si="0">16.17*I4/(I4+I11)</f>
-        <v>10.1794709869848</v>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>10.179470986984818</v>
       </c>
       <c r="AD4" s="20"/>
       <c r="AE4" s="20"/>
@@ -11525,38 +10973,39 @@
         <v>110</v>
       </c>
       <c r="E5" s="19">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="22">
-        <f>H4</f>
-        <v>5.6603398535791802</v>
-      </c>
-      <c r="I5" s="19">
-        <v>23.216999999999999</v>
-      </c>
-      <c r="J5" s="22">
-        <f t="shared" ref="J5:M10" si="1">J$4</f>
-        <v>5.7916594360086799</v>
-      </c>
-      <c r="K5" s="22">
+      <c r="H5">
+        <f t="shared" ref="H5:N5" si="1">T19</f>
+        <v>3.3310601464208238</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="1"/>
-        <v>3.8401220173535799</v>
-      </c>
-      <c r="L5" s="22">
+        <v>13.663</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>0.56028009761388298</v>
-      </c>
-      <c r="M5" s="19">
+        <v>3.4083405639913229</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="1"/>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="N5" s="22">
-        <f t="shared" si="0"/>
-        <v>10.1794709869848</v>
+        <v>2.2598779826464206</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0.32971990238611715</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.183</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>5.990529013015184</v>
       </c>
       <c r="P5" s="30" t="s">
         <v>116</v>
@@ -11598,43 +11047,10 @@
     <row r="6" spans="1:42" ht="13">
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="19">
-        <v>2030</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="22">
-        <f t="shared" ref="H6:H10" si="2">H5</f>
-        <v>5.6603398535791802</v>
-      </c>
-      <c r="I6" s="19">
-        <v>23.216999999999999</v>
-      </c>
-      <c r="J6" s="22">
-        <f t="shared" si="1"/>
-        <v>5.7916594360086799</v>
-      </c>
-      <c r="K6" s="22">
-        <f t="shared" si="1"/>
-        <v>3.8401220173535799</v>
-      </c>
-      <c r="L6" s="22">
-        <f t="shared" si="1"/>
-        <v>0.56028009761388298</v>
-      </c>
-      <c r="M6" s="19">
-        <f t="shared" si="1"/>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="N6" s="22">
-        <f t="shared" si="0"/>
-        <v>10.1794709869848</v>
-      </c>
       <c r="P6" s="30" t="s">
         <v>118</v>
       </c>
@@ -11644,43 +11060,10 @@
     <row r="7" spans="1:42" ht="13">
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="19">
-        <v>2035</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="22">
-        <f t="shared" si="2"/>
-        <v>5.6603398535791802</v>
-      </c>
-      <c r="I7" s="19">
-        <v>23.216999999999999</v>
-      </c>
-      <c r="J7" s="22">
-        <f t="shared" si="1"/>
-        <v>5.7916594360086799</v>
-      </c>
-      <c r="K7" s="22">
-        <f t="shared" si="1"/>
-        <v>3.8401220173535799</v>
-      </c>
-      <c r="L7" s="22">
-        <f t="shared" si="1"/>
-        <v>0.56028009761388298</v>
-      </c>
-      <c r="M7" s="19">
-        <f t="shared" si="1"/>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="N7" s="22">
-        <f t="shared" si="0"/>
-        <v>10.1794709869848</v>
-      </c>
       <c r="P7" s="30" t="s">
         <v>119</v>
       </c>
@@ -11701,43 +11084,10 @@
     <row r="8" spans="1:42" ht="13">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="19">
-        <v>2040</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="22">
-        <f t="shared" si="2"/>
-        <v>5.6603398535791802</v>
-      </c>
-      <c r="I8" s="19">
-        <v>23.216999999999999</v>
-      </c>
-      <c r="J8" s="22">
-        <f t="shared" si="1"/>
-        <v>5.7916594360086799</v>
-      </c>
-      <c r="K8" s="22">
-        <f t="shared" si="1"/>
-        <v>3.8401220173535799</v>
-      </c>
-      <c r="L8" s="22">
-        <f t="shared" si="1"/>
-        <v>0.56028009761388298</v>
-      </c>
-      <c r="M8" s="19">
-        <f t="shared" si="1"/>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="N8" s="22">
-        <f t="shared" si="0"/>
-        <v>10.1794709869848</v>
-      </c>
       <c r="P8" s="30" t="s">
         <v>120</v>
       </c>
@@ -11758,43 +11108,10 @@
     <row r="9" spans="1:42" ht="13">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="19">
-        <v>2045</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="22">
-        <f t="shared" si="2"/>
-        <v>5.6603398535791802</v>
-      </c>
-      <c r="I9" s="19">
-        <v>23.216999999999999</v>
-      </c>
-      <c r="J9" s="22">
-        <f t="shared" si="1"/>
-        <v>5.7916594360086799</v>
-      </c>
-      <c r="K9" s="22">
-        <f t="shared" si="1"/>
-        <v>3.8401220173535799</v>
-      </c>
-      <c r="L9" s="22">
-        <f t="shared" si="1"/>
-        <v>0.56028009761388298</v>
-      </c>
-      <c r="M9" s="19">
-        <f t="shared" si="1"/>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="N9" s="22">
-        <f t="shared" si="0"/>
-        <v>10.1794709869848</v>
-      </c>
       <c r="P9" s="30" t="s">
         <v>121</v>
       </c>
@@ -11815,43 +11132,10 @@
     <row r="10" spans="1:42" ht="13">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="19">
-        <v>2050</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="22">
-        <f t="shared" si="2"/>
-        <v>5.6603398535791802</v>
-      </c>
-      <c r="I10" s="19">
-        <v>23.216999999999999</v>
-      </c>
-      <c r="J10" s="22">
-        <f t="shared" si="1"/>
-        <v>5.7916594360086799</v>
-      </c>
-      <c r="K10" s="22">
-        <f t="shared" si="1"/>
-        <v>3.8401220173535799</v>
-      </c>
-      <c r="L10" s="22">
-        <f t="shared" si="1"/>
-        <v>0.56028009761388298</v>
-      </c>
-      <c r="M10" s="19">
-        <f t="shared" si="1"/>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="N10" s="22">
-        <f t="shared" si="0"/>
-        <v>10.1794709869848</v>
-      </c>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="16"/>
@@ -11866,45 +11150,9 @@
       <c r="AO10" s="16"/>
       <c r="AP10" s="16"/>
     </row>
-    <row r="11" spans="1:42" ht="13">
+    <row r="11" spans="1:42">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="19">
-        <v>2020</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="22">
-        <f>SUM(R12:R15)</f>
-        <v>3.3310601464208198</v>
-      </c>
-      <c r="I11" s="19">
-        <v>13.663</v>
-      </c>
-      <c r="J11" s="22">
-        <f>9.2-J4</f>
-        <v>3.4083405639913198</v>
-      </c>
-      <c r="K11" s="22">
-        <f>6.1-K4</f>
-        <v>2.2598779826464201</v>
-      </c>
-      <c r="L11" s="22">
-        <f>0.89-L4</f>
-        <v>0.32971990238611698</v>
-      </c>
-      <c r="M11" s="19">
-        <v>0.183</v>
-      </c>
-      <c r="N11" s="22">
-        <f t="shared" ref="N11:N17" si="3">16.17-N4</f>
-        <v>5.9905290130151796</v>
-      </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="20" t="s">
         <v>122</v>
@@ -11929,53 +11177,46 @@
     <row r="12" spans="1:42" ht="13">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="19">
-        <v>2025</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="22">
-        <f>H11</f>
-        <v>3.3310601464208198</v>
-      </c>
-      <c r="I12" s="19">
-        <v>13.663</v>
-      </c>
-      <c r="J12" s="22">
-        <f t="shared" ref="J12:M17" si="4">J$11</f>
-        <v>3.4083405639913198</v>
-      </c>
-      <c r="K12" s="22">
-        <f t="shared" si="4"/>
-        <v>2.2598779826464201</v>
-      </c>
-      <c r="L12" s="22">
-        <f t="shared" si="4"/>
-        <v>0.32971990238611698</v>
-      </c>
-      <c r="M12" s="19">
-        <f t="shared" si="4"/>
-        <v>0.183</v>
-      </c>
-      <c r="N12" s="22">
-        <f t="shared" si="3"/>
-        <v>5.9905290130151796</v>
-      </c>
       <c r="P12" s="31" t="s">
         <v>124</v>
       </c>
       <c r="Q12" s="19">
-        <f>400*(I4)/(I4+I11)/1000</f>
-        <v>0.25181127982646401</v>
+        <f>400*(U12)/(U12+U19)/1000</f>
+        <v>0.25181127982646423</v>
       </c>
       <c r="R12" s="19">
-        <f>400*(J11)/(J4+J11)/1000</f>
-        <v>0.14818872017353599</v>
+        <f>400*(V19)/(V12+V19)/1000</f>
+        <v>0.14818872017353579</v>
+      </c>
+      <c r="T12" s="22">
+        <f>SUM(Q12:Q15)</f>
+        <v>5.6603398535791767</v>
+      </c>
+      <c r="U12" s="19">
+        <v>23.216999999999999</v>
+      </c>
+      <c r="V12" s="22">
+        <f>9.2*U12/(U12+U19)</f>
+        <v>5.7916594360086764</v>
+      </c>
+      <c r="W12" s="22">
+        <f>6.1*U12/(U12+U19)</f>
+        <v>3.8401220173535791</v>
+      </c>
+      <c r="X12" s="22">
+        <f>0.89*U12/(U12+U19)</f>
+        <v>0.56028009761388287</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Z12" s="22">
+        <f t="shared" ref="Z12:Z18" si="2">16.17*U12/(U12+U19)</f>
+        <v>10.179470986984818</v>
       </c>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
@@ -11994,53 +11235,47 @@
     <row r="13" spans="1:42" ht="13">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="19">
-        <v>2030</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="22">
-        <f t="shared" ref="H13:H19" si="5">H12</f>
-        <v>3.3310601464208198</v>
-      </c>
-      <c r="I13" s="19">
-        <v>13.663</v>
-      </c>
-      <c r="J13" s="22">
-        <f t="shared" si="4"/>
-        <v>3.4083405639913198</v>
-      </c>
-      <c r="K13" s="22">
-        <f t="shared" si="4"/>
-        <v>2.2598779826464201</v>
-      </c>
-      <c r="L13" s="22">
-        <f t="shared" si="4"/>
-        <v>0.32971990238611698</v>
-      </c>
-      <c r="M13" s="19">
-        <f t="shared" si="4"/>
-        <v>0.183</v>
-      </c>
-      <c r="N13" s="22">
-        <f t="shared" si="3"/>
-        <v>5.9905290130151796</v>
-      </c>
       <c r="P13" s="31" t="s">
         <v>125</v>
       </c>
       <c r="Q13" s="19">
-        <f>1324*(I5)/(I5+I12)/1000</f>
-        <v>0.83349533622559702</v>
+        <f>1324*(U13)/(U13+U20)/1000</f>
+        <v>0.83349533622559657</v>
       </c>
       <c r="R13" s="19">
-        <f>1324*(J12)/(J5+J12)/1000</f>
-        <v>0.49050466377440299</v>
+        <f>1324*(V20)/(V13+V20)/1000</f>
+        <v>0.49050466377440349</v>
+      </c>
+      <c r="T13" s="22">
+        <f>T12</f>
+        <v>5.6603398535791767</v>
+      </c>
+      <c r="U13" s="19">
+        <v>23.216999999999999</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" ref="V13:Y18" si="3">V$12</f>
+        <v>5.7916594360086764</v>
+      </c>
+      <c r="W13" s="22">
+        <f t="shared" si="3"/>
+        <v>3.8401220173535791</v>
+      </c>
+      <c r="X13" s="22">
+        <f t="shared" si="3"/>
+        <v>0.56028009761388287</v>
+      </c>
+      <c r="Y13" s="19">
+        <f t="shared" si="3"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Z13" s="22">
+        <f t="shared" si="2"/>
+        <v>10.179470986984818</v>
       </c>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
@@ -12059,53 +11294,47 @@
     <row r="14" spans="1:42" ht="13">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="19">
-        <v>2035</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="22">
-        <f t="shared" si="5"/>
-        <v>3.3310601464208198</v>
-      </c>
-      <c r="I14" s="19">
-        <v>13.663</v>
-      </c>
-      <c r="J14" s="22">
-        <f t="shared" si="4"/>
-        <v>3.4083405639913198</v>
-      </c>
-      <c r="K14" s="22">
-        <f t="shared" si="4"/>
-        <v>2.2598779826464201</v>
-      </c>
-      <c r="L14" s="22">
-        <f t="shared" si="4"/>
-        <v>0.32971990238611698</v>
-      </c>
-      <c r="M14" s="19">
-        <f t="shared" si="4"/>
-        <v>0.183</v>
-      </c>
-      <c r="N14" s="22">
-        <f t="shared" si="3"/>
-        <v>5.9905290130151796</v>
-      </c>
       <c r="P14" s="31" t="s">
         <v>126</v>
       </c>
       <c r="Q14" s="19">
-        <f>0*(I6)/(I6+I13)/1000</f>
+        <f>0*(U14)/(U14+U21)/1000</f>
         <v>0</v>
       </c>
       <c r="R14" s="19">
-        <f>0*(J6)/(J6+J13)/1000</f>
+        <f>0*(V14)/(V14+V21)/1000</f>
         <v>0</v>
+      </c>
+      <c r="T14" s="22">
+        <f t="shared" ref="T14:T18" si="4">T13</f>
+        <v>5.6603398535791767</v>
+      </c>
+      <c r="U14" s="19">
+        <v>23.216999999999999</v>
+      </c>
+      <c r="V14" s="22">
+        <f t="shared" si="3"/>
+        <v>5.7916594360086764</v>
+      </c>
+      <c r="W14" s="22">
+        <f t="shared" si="3"/>
+        <v>3.8401220173535791</v>
+      </c>
+      <c r="X14" s="22">
+        <f t="shared" si="3"/>
+        <v>0.56028009761388287</v>
+      </c>
+      <c r="Y14" s="19">
+        <f t="shared" si="3"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Z14" s="22">
+        <f t="shared" si="2"/>
+        <v>10.179470986984818</v>
       </c>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
@@ -12124,53 +11353,47 @@
     <row r="15" spans="1:42" ht="13">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="19">
-        <v>2040</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="22">
-        <f t="shared" si="5"/>
-        <v>3.3310601464208198</v>
-      </c>
-      <c r="I15" s="19">
-        <v>13.663</v>
-      </c>
-      <c r="J15" s="22">
-        <f t="shared" si="4"/>
-        <v>3.4083405639913198</v>
-      </c>
-      <c r="K15" s="22">
-        <f t="shared" si="4"/>
-        <v>2.2598779826464201</v>
-      </c>
-      <c r="L15" s="22">
-        <f t="shared" si="4"/>
-        <v>0.32971990238611698</v>
-      </c>
-      <c r="M15" s="19">
-        <f t="shared" si="4"/>
-        <v>0.183</v>
-      </c>
-      <c r="N15" s="22">
-        <f t="shared" si="3"/>
-        <v>5.9905290130151796</v>
-      </c>
       <c r="P15" s="31" t="s">
         <v>127</v>
       </c>
       <c r="Q15" s="19">
-        <f>7267.4*(I7)/(I7+I14)/1000</f>
-        <v>4.5750332375271201</v>
+        <f>7267.4*(U15)/(U15+U22)/1000</f>
+        <v>4.5750332375271157</v>
       </c>
       <c r="R15" s="19">
-        <f>7267.4*(J14)/(J7+J14)/1000</f>
-        <v>2.6923667624728802</v>
+        <f>7267.4*(V22)/(V15+V22)/1000</f>
+        <v>2.6923667624728846</v>
+      </c>
+      <c r="T15" s="22">
+        <f t="shared" si="4"/>
+        <v>5.6603398535791767</v>
+      </c>
+      <c r="U15" s="19">
+        <v>23.216999999999999</v>
+      </c>
+      <c r="V15" s="22">
+        <f t="shared" si="3"/>
+        <v>5.7916594360086764</v>
+      </c>
+      <c r="W15" s="22">
+        <f t="shared" si="3"/>
+        <v>3.8401220173535791</v>
+      </c>
+      <c r="X15" s="22">
+        <f t="shared" si="3"/>
+        <v>0.56028009761388287</v>
+      </c>
+      <c r="Y15" s="19">
+        <f t="shared" si="3"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Z15" s="22">
+        <f t="shared" si="2"/>
+        <v>10.179470986984818</v>
       </c>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
@@ -12189,49 +11412,43 @@
     <row r="16" spans="1:42" ht="13">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="19">
-        <v>2045</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="22">
-        <f t="shared" si="5"/>
-        <v>3.3310601464208198</v>
-      </c>
-      <c r="I16" s="19">
-        <v>13.663</v>
-      </c>
-      <c r="J16" s="22">
-        <f t="shared" si="4"/>
-        <v>3.4083405639913198</v>
-      </c>
-      <c r="K16" s="22">
-        <f t="shared" si="4"/>
-        <v>2.2598779826464201</v>
-      </c>
-      <c r="L16" s="22">
-        <f t="shared" si="4"/>
-        <v>0.32971990238611698</v>
-      </c>
-      <c r="M16" s="19">
-        <f t="shared" si="4"/>
-        <v>0.183</v>
-      </c>
-      <c r="N16" s="22">
-        <f t="shared" si="3"/>
-        <v>5.9905290130151796</v>
-      </c>
       <c r="P16" s="32">
         <f>5428+824+604+127+84+75+41+9+75.4</f>
         <v>7267.4</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
+      <c r="T16" s="22">
+        <f t="shared" si="4"/>
+        <v>5.6603398535791767</v>
+      </c>
+      <c r="U16" s="19">
+        <v>23.216999999999999</v>
+      </c>
+      <c r="V16" s="22">
+        <f t="shared" si="3"/>
+        <v>5.7916594360086764</v>
+      </c>
+      <c r="W16" s="22">
+        <f t="shared" si="3"/>
+        <v>3.8401220173535791</v>
+      </c>
+      <c r="X16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.56028009761388287</v>
+      </c>
+      <c r="Y16" s="19">
+        <f t="shared" si="3"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Z16" s="22">
+        <f t="shared" si="2"/>
+        <v>10.179470986984818</v>
+      </c>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="16"/>
@@ -12249,42 +11466,36 @@
     <row r="17" spans="1:42" ht="13">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="19">
-        <v>2050</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="22">
-        <f t="shared" si="5"/>
-        <v>3.3310601464208198</v>
-      </c>
-      <c r="I17" s="19">
-        <v>13.663</v>
-      </c>
-      <c r="J17" s="22">
+      <c r="T17" s="22">
         <f t="shared" si="4"/>
-        <v>3.4083405639913198</v>
-      </c>
-      <c r="K17" s="22">
-        <f t="shared" si="4"/>
-        <v>2.2598779826464201</v>
-      </c>
-      <c r="L17" s="22">
-        <f t="shared" si="4"/>
-        <v>0.32971990238611698</v>
-      </c>
-      <c r="M17" s="19">
-        <f t="shared" si="4"/>
-        <v>0.183</v>
-      </c>
-      <c r="N17" s="22">
+        <v>5.6603398535791767</v>
+      </c>
+      <c r="U17" s="19">
+        <v>23.216999999999999</v>
+      </c>
+      <c r="V17" s="22">
         <f t="shared" si="3"/>
-        <v>5.9905290130151796</v>
+        <v>5.7916594360086764</v>
+      </c>
+      <c r="W17" s="22">
+        <f t="shared" si="3"/>
+        <v>3.8401220173535791</v>
+      </c>
+      <c r="X17" s="22">
+        <f t="shared" si="3"/>
+        <v>0.56028009761388287</v>
+      </c>
+      <c r="Y17" s="19">
+        <f t="shared" si="3"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Z17" s="22">
+        <f t="shared" si="2"/>
+        <v>10.179470986984818</v>
       </c>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
@@ -12301,36 +11512,43 @@
       <c r="AP17" s="16"/>
     </row>
     <row r="18" spans="1:42" ht="13">
-      <c r="D18" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>115</v>
-      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="23">
-        <v>5</v>
-      </c>
-      <c r="I18" s="23">
-        <v>5</v>
-      </c>
-      <c r="J18" s="23">
-        <v>5</v>
-      </c>
-      <c r="K18" s="23">
-        <v>5</v>
-      </c>
-      <c r="L18" s="23">
-        <v>5</v>
-      </c>
-      <c r="M18" s="23">
-        <v>5</v>
-      </c>
-      <c r="N18" s="23">
-        <v>5</v>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="T18" s="22">
+        <f t="shared" si="4"/>
+        <v>5.6603398535791767</v>
+      </c>
+      <c r="U18" s="19">
+        <v>23.216999999999999</v>
+      </c>
+      <c r="V18" s="22">
+        <f t="shared" si="3"/>
+        <v>5.7916594360086764</v>
+      </c>
+      <c r="W18" s="22">
+        <f t="shared" si="3"/>
+        <v>3.8401220173535791</v>
+      </c>
+      <c r="X18" s="22">
+        <f t="shared" si="3"/>
+        <v>0.56028009761388287</v>
+      </c>
+      <c r="Y18" s="19">
+        <f t="shared" si="3"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Z18" s="22">
+        <f t="shared" si="2"/>
+        <v>10.179470986984818</v>
       </c>
       <c r="AF18" s="16"/>
       <c r="AG18" s="16"/>
@@ -12345,37 +11563,42 @@
       <c r="AP18" s="16"/>
     </row>
     <row r="19" spans="1:42" s="16" customFormat="1" ht="13">
-      <c r="D19" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="23">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>117</v>
-      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="23">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I19" s="23">
-        <v>5</v>
-      </c>
-      <c r="J19" s="23">
-        <v>5</v>
-      </c>
-      <c r="K19" s="23">
-        <v>5</v>
-      </c>
-      <c r="L19" s="23">
-        <v>5</v>
-      </c>
-      <c r="M19" s="23">
-        <v>5</v>
-      </c>
-      <c r="N19" s="23">
-        <v>5</v>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="T19" s="22">
+        <f>SUM(R12:R15)</f>
+        <v>3.3310601464208238</v>
+      </c>
+      <c r="U19" s="19">
+        <v>13.663</v>
+      </c>
+      <c r="V19" s="22">
+        <f>9.2-V12</f>
+        <v>3.4083405639913229</v>
+      </c>
+      <c r="W19" s="22">
+        <f>6.1-W12</f>
+        <v>2.2598779826464206</v>
+      </c>
+      <c r="X19" s="22">
+        <f>0.89-X12</f>
+        <v>0.32971990238611715</v>
+      </c>
+      <c r="Y19" s="19">
+        <v>0.183</v>
+      </c>
+      <c r="Z19" s="22">
+        <f t="shared" ref="Z19:Z25" si="5">16.17-Z12</f>
+        <v>5.990529013015184</v>
       </c>
       <c r="AF19" s="17"/>
       <c r="AG19" s="17"/>
@@ -12390,6 +11613,33 @@
       <c r="AP19" s="17"/>
     </row>
     <row r="20" spans="1:42" s="16" customFormat="1">
+      <c r="T20" s="22">
+        <f t="shared" ref="T20:T25" si="6">T19</f>
+        <v>3.3310601464208238</v>
+      </c>
+      <c r="U20" s="19">
+        <v>13.663</v>
+      </c>
+      <c r="V20" s="22">
+        <f t="shared" ref="V20:Y25" si="7">V$19</f>
+        <v>3.4083405639913229</v>
+      </c>
+      <c r="W20" s="22">
+        <f t="shared" si="7"/>
+        <v>2.2598779826464206</v>
+      </c>
+      <c r="X20" s="22">
+        <f t="shared" si="7"/>
+        <v>0.32971990238611715</v>
+      </c>
+      <c r="Y20" s="19">
+        <f t="shared" si="7"/>
+        <v>0.183</v>
+      </c>
+      <c r="Z20" s="22">
+        <f t="shared" si="5"/>
+        <v>5.990529013015184</v>
+      </c>
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
       <c r="AH20" s="17"/>
@@ -12403,6 +11653,33 @@
       <c r="AP20" s="17"/>
     </row>
     <row r="21" spans="1:42" s="16" customFormat="1">
+      <c r="T21" s="22">
+        <f t="shared" si="6"/>
+        <v>3.3310601464208238</v>
+      </c>
+      <c r="U21" s="19">
+        <v>13.663</v>
+      </c>
+      <c r="V21" s="22">
+        <f t="shared" si="7"/>
+        <v>3.4083405639913229</v>
+      </c>
+      <c r="W21" s="22">
+        <f t="shared" si="7"/>
+        <v>2.2598779826464206</v>
+      </c>
+      <c r="X21" s="22">
+        <f t="shared" si="7"/>
+        <v>0.32971990238611715</v>
+      </c>
+      <c r="Y21" s="19">
+        <f t="shared" si="7"/>
+        <v>0.183</v>
+      </c>
+      <c r="Z21" s="22">
+        <f t="shared" si="5"/>
+        <v>5.990529013015184</v>
+      </c>
       <c r="AF21" s="17"/>
       <c r="AG21" s="17"/>
       <c r="AH21" s="17"/>
@@ -12416,6 +11693,33 @@
       <c r="AP21" s="17"/>
     </row>
     <row r="22" spans="1:42" s="16" customFormat="1">
+      <c r="T22" s="22">
+        <f t="shared" si="6"/>
+        <v>3.3310601464208238</v>
+      </c>
+      <c r="U22" s="19">
+        <v>13.663</v>
+      </c>
+      <c r="V22" s="22">
+        <f t="shared" si="7"/>
+        <v>3.4083405639913229</v>
+      </c>
+      <c r="W22" s="22">
+        <f t="shared" si="7"/>
+        <v>2.2598779826464206</v>
+      </c>
+      <c r="X22" s="22">
+        <f t="shared" si="7"/>
+        <v>0.32971990238611715</v>
+      </c>
+      <c r="Y22" s="19">
+        <f t="shared" si="7"/>
+        <v>0.183</v>
+      </c>
+      <c r="Z22" s="22">
+        <f t="shared" si="5"/>
+        <v>5.990529013015184</v>
+      </c>
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
       <c r="AH22" s="17"/>
@@ -12432,6 +11736,33 @@
       <c r="F23" s="16" t="s">
         <v>128</v>
       </c>
+      <c r="T23" s="22">
+        <f t="shared" si="6"/>
+        <v>3.3310601464208238</v>
+      </c>
+      <c r="U23" s="19">
+        <v>13.663</v>
+      </c>
+      <c r="V23" s="22">
+        <f t="shared" si="7"/>
+        <v>3.4083405639913229</v>
+      </c>
+      <c r="W23" s="22">
+        <f t="shared" si="7"/>
+        <v>2.2598779826464206</v>
+      </c>
+      <c r="X23" s="22">
+        <f t="shared" si="7"/>
+        <v>0.32971990238611715</v>
+      </c>
+      <c r="Y23" s="19">
+        <f t="shared" si="7"/>
+        <v>0.183</v>
+      </c>
+      <c r="Z23" s="22">
+        <f t="shared" si="5"/>
+        <v>5.990529013015184</v>
+      </c>
       <c r="AF23"/>
       <c r="AG23"/>
       <c r="AH23"/>
@@ -12445,6 +11776,33 @@
       <c r="AP23"/>
     </row>
     <row r="24" spans="1:42" s="16" customFormat="1">
+      <c r="T24" s="22">
+        <f t="shared" si="6"/>
+        <v>3.3310601464208238</v>
+      </c>
+      <c r="U24" s="19">
+        <v>13.663</v>
+      </c>
+      <c r="V24" s="22">
+        <f t="shared" si="7"/>
+        <v>3.4083405639913229</v>
+      </c>
+      <c r="W24" s="22">
+        <f t="shared" si="7"/>
+        <v>2.2598779826464206</v>
+      </c>
+      <c r="X24" s="22">
+        <f t="shared" si="7"/>
+        <v>0.32971990238611715</v>
+      </c>
+      <c r="Y24" s="19">
+        <f t="shared" si="7"/>
+        <v>0.183</v>
+      </c>
+      <c r="Z24" s="22">
+        <f t="shared" si="5"/>
+        <v>5.990529013015184</v>
+      </c>
       <c r="AF24"/>
       <c r="AG24"/>
       <c r="AH24"/>
@@ -12458,6 +11816,33 @@
       <c r="AP24"/>
     </row>
     <row r="25" spans="1:42" s="16" customFormat="1">
+      <c r="T25" s="22">
+        <f t="shared" si="6"/>
+        <v>3.3310601464208238</v>
+      </c>
+      <c r="U25" s="19">
+        <v>13.663</v>
+      </c>
+      <c r="V25" s="22">
+        <f t="shared" si="7"/>
+        <v>3.4083405639913229</v>
+      </c>
+      <c r="W25" s="22">
+        <f t="shared" si="7"/>
+        <v>2.2598779826464206</v>
+      </c>
+      <c r="X25" s="22">
+        <f t="shared" si="7"/>
+        <v>0.32971990238611715</v>
+      </c>
+      <c r="Y25" s="19">
+        <f t="shared" si="7"/>
+        <v>0.183</v>
+      </c>
+      <c r="Z25" s="22">
+        <f t="shared" si="5"/>
+        <v>5.990529013015184</v>
+      </c>
       <c r="AF25"/>
       <c r="AG25"/>
       <c r="AH25"/>
@@ -13246,30 +12631,30 @@
         <v>117</v>
       </c>
       <c r="G53" s="22">
-        <f t="shared" ref="G53:G63" si="6">H53</f>
+        <f t="shared" ref="G53:G63" si="8">H53</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="H53">
         <v>0.56999999999999995</v>
       </c>
       <c r="I53" s="22">
-        <f t="shared" ref="I53:I63" si="7">G53</f>
+        <f t="shared" ref="I53:I63" si="9">G53</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="J53" s="22">
-        <f t="shared" ref="J53:J63" si="8">H53</f>
+        <f t="shared" ref="J53:J63" si="10">H53</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="K53" s="22">
-        <f t="shared" ref="K53:K63" si="9">H53</f>
+        <f t="shared" ref="K53:K63" si="11">H53</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="L53" s="22">
-        <f t="shared" ref="L53:L63" si="10">H53</f>
+        <f t="shared" ref="L53:L63" si="12">H53</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="M53" s="22">
-        <f t="shared" ref="M53:M63" si="11">H53</f>
+        <f t="shared" ref="M53:M63" si="13">H53</f>
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -13290,30 +12675,30 @@
         <v>117</v>
       </c>
       <c r="G54" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="H54">
         <v>0.56999999999999995</v>
       </c>
       <c r="I54" s="22">
-        <f t="shared" si="7"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J54" s="22">
-        <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K54" s="22">
         <f t="shared" si="9"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L54" s="22">
+      <c r="J54" s="22">
         <f t="shared" si="10"/>
         <v>0.56999999999999995</v>
       </c>
+      <c r="K54" s="22">
+        <f t="shared" si="11"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L54" s="22">
+        <f t="shared" si="12"/>
+        <v>0.56999999999999995</v>
+      </c>
       <c r="M54" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -13334,30 +12719,30 @@
         <v>117</v>
       </c>
       <c r="G55" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.62</v>
       </c>
       <c r="H55">
         <v>0.62</v>
       </c>
       <c r="I55" s="22">
-        <f t="shared" si="7"/>
-        <v>0.62</v>
-      </c>
-      <c r="J55" s="22">
-        <f t="shared" si="8"/>
-        <v>0.62</v>
-      </c>
-      <c r="K55" s="22">
         <f t="shared" si="9"/>
         <v>0.62</v>
       </c>
-      <c r="L55" s="22">
+      <c r="J55" s="22">
         <f t="shared" si="10"/>
         <v>0.62</v>
       </c>
+      <c r="K55" s="22">
+        <f t="shared" si="11"/>
+        <v>0.62</v>
+      </c>
+      <c r="L55" s="22">
+        <f t="shared" si="12"/>
+        <v>0.62</v>
+      </c>
       <c r="M55" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.62</v>
       </c>
     </row>
@@ -13378,30 +12763,30 @@
         <v>117</v>
       </c>
       <c r="G56" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.62</v>
       </c>
       <c r="H56">
         <v>0.62</v>
       </c>
       <c r="I56" s="22">
-        <f t="shared" si="7"/>
-        <v>0.62</v>
-      </c>
-      <c r="J56" s="22">
-        <f t="shared" si="8"/>
-        <v>0.62</v>
-      </c>
-      <c r="K56" s="22">
         <f t="shared" si="9"/>
         <v>0.62</v>
       </c>
-      <c r="L56" s="22">
+      <c r="J56" s="22">
         <f t="shared" si="10"/>
         <v>0.62</v>
       </c>
+      <c r="K56" s="22">
+        <f t="shared" si="11"/>
+        <v>0.62</v>
+      </c>
+      <c r="L56" s="22">
+        <f t="shared" si="12"/>
+        <v>0.62</v>
+      </c>
       <c r="M56" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.62</v>
       </c>
     </row>
@@ -13422,30 +12807,30 @@
         <v>117</v>
       </c>
       <c r="G57" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.62</v>
       </c>
       <c r="H57">
         <v>0.62</v>
       </c>
       <c r="I57" s="22">
-        <f t="shared" si="7"/>
-        <v>0.62</v>
-      </c>
-      <c r="J57" s="22">
-        <f t="shared" si="8"/>
-        <v>0.62</v>
-      </c>
-      <c r="K57" s="22">
         <f t="shared" si="9"/>
         <v>0.62</v>
       </c>
-      <c r="L57" s="22">
+      <c r="J57" s="22">
         <f t="shared" si="10"/>
         <v>0.62</v>
       </c>
+      <c r="K57" s="22">
+        <f t="shared" si="11"/>
+        <v>0.62</v>
+      </c>
+      <c r="L57" s="22">
+        <f t="shared" si="12"/>
+        <v>0.62</v>
+      </c>
       <c r="M57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.62</v>
       </c>
     </row>
@@ -13466,30 +12851,30 @@
         <v>117</v>
       </c>
       <c r="G58" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="H58">
         <v>0.56999999999999995</v>
       </c>
       <c r="I58" s="22">
-        <f t="shared" si="7"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J58" s="22">
-        <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K58" s="22">
         <f t="shared" si="9"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L58" s="22">
+      <c r="J58" s="22">
         <f t="shared" si="10"/>
         <v>0.56999999999999995</v>
       </c>
+      <c r="K58" s="22">
+        <f t="shared" si="11"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L58" s="22">
+        <f t="shared" si="12"/>
+        <v>0.56999999999999995</v>
+      </c>
       <c r="M58" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -13510,30 +12895,30 @@
         <v>117</v>
       </c>
       <c r="G59" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="H59">
         <v>0.56999999999999995</v>
       </c>
       <c r="I59" s="22">
-        <f t="shared" si="7"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J59" s="22">
-        <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K59" s="22">
         <f t="shared" si="9"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L59" s="22">
+      <c r="J59" s="22">
         <f t="shared" si="10"/>
         <v>0.56999999999999995</v>
       </c>
+      <c r="K59" s="22">
+        <f t="shared" si="11"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L59" s="22">
+        <f t="shared" si="12"/>
+        <v>0.56999999999999995</v>
+      </c>
       <c r="M59" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -13554,30 +12939,30 @@
         <v>117</v>
       </c>
       <c r="G60" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="H60">
         <v>0.56999999999999995</v>
       </c>
       <c r="I60" s="22">
-        <f t="shared" si="7"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J60" s="22">
-        <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K60" s="22">
         <f t="shared" si="9"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L60" s="22">
+      <c r="J60" s="22">
         <f t="shared" si="10"/>
         <v>0.56999999999999995</v>
       </c>
+      <c r="K60" s="22">
+        <f t="shared" si="11"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L60" s="22">
+        <f t="shared" si="12"/>
+        <v>0.56999999999999995</v>
+      </c>
       <c r="M60" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="AF60" s="17"/>
@@ -13609,30 +12994,30 @@
         <v>117</v>
       </c>
       <c r="G61" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="H61">
         <v>0.56999999999999995</v>
       </c>
       <c r="I61" s="22">
-        <f t="shared" si="7"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J61" s="22">
-        <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K61" s="22">
         <f t="shared" si="9"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L61" s="22">
+      <c r="J61" s="22">
         <f t="shared" si="10"/>
         <v>0.56999999999999995</v>
       </c>
+      <c r="K61" s="22">
+        <f t="shared" si="11"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L61" s="22">
+        <f t="shared" si="12"/>
+        <v>0.56999999999999995</v>
+      </c>
       <c r="M61" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="AF61" s="17"/>
@@ -13664,30 +13049,30 @@
         <v>117</v>
       </c>
       <c r="G62" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="H62">
         <v>0.56999999999999995</v>
       </c>
       <c r="I62" s="22">
-        <f t="shared" si="7"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J62" s="22">
-        <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K62" s="22">
         <f t="shared" si="9"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L62" s="22">
+      <c r="J62" s="22">
         <f t="shared" si="10"/>
         <v>0.56999999999999995</v>
       </c>
+      <c r="K62" s="22">
+        <f t="shared" si="11"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L62" s="22">
+        <f t="shared" si="12"/>
+        <v>0.56999999999999995</v>
+      </c>
       <c r="M62" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="AF62" s="17"/>
@@ -13719,30 +13104,30 @@
         <v>117</v>
       </c>
       <c r="G63" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="H63">
         <v>0.56999999999999995</v>
       </c>
       <c r="I63" s="22">
-        <f t="shared" si="7"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J63" s="22">
-        <f t="shared" si="8"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K63" s="22">
         <f t="shared" si="9"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L63" s="22">
+      <c r="J63" s="22">
         <f t="shared" si="10"/>
         <v>0.56999999999999995</v>
       </c>
+      <c r="K63" s="22">
+        <f t="shared" si="11"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L63" s="22">
+        <f t="shared" si="12"/>
+        <v>0.56999999999999995</v>
+      </c>
       <c r="M63" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="AF63" s="17"/>
@@ -14065,39 +13450,39 @@
         <v>0.5</v>
       </c>
       <c r="F74" s="17">
-        <f t="shared" ref="F74:N74" si="12">F70/$D$70</f>
+        <f t="shared" ref="F74:N74" si="14">F70/$D$70</f>
         <v>1.75</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.25</v>
       </c>
       <c r="H74" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="I74" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.25</v>
       </c>
       <c r="J74" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.25</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.75</v>
       </c>
       <c r="L74" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.75</v>
       </c>
       <c r="M74" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.25</v>
       </c>
       <c r="N74" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="O74" s="17">
@@ -15029,7 +14414,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="37.5">
+    <row r="13" spans="1:10" ht="25">
       <c r="A13" s="7" t="s">
         <v>206</v>
       </c>
@@ -15627,7 +15012,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="37.5">
+    <row r="36" spans="1:8" ht="25">
       <c r="A36" s="7" t="s">
         <v>250</v>
       </c>
@@ -15653,7 +15038,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="37.5">
+    <row r="37" spans="1:8" ht="25">
       <c r="A37" s="7" t="s">
         <v>252</v>
       </c>
@@ -15679,7 +15064,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="37.5">
+    <row r="38" spans="1:8" ht="25">
       <c r="A38" s="7" t="s">
         <v>253</v>
       </c>
@@ -15965,7 +15350,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="50">
+    <row r="49" spans="1:8" ht="37.5">
       <c r="A49" s="7" t="s">
         <v>274</v>
       </c>
@@ -16482,7 +15867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
